--- a/new_files/Copy of wordtypes and frequency - lexical analysis (1).xlsx
+++ b/new_files/Copy of wordtypes and frequency - lexical analysis (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_download\design_of_inf_sys-master\srs_and_lexical_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/hannegga_ntnu_no/Documents/Desktop/2022/2022 vår/Tsjekkia/Design of information systems/project/design_of_inf_sys/new_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD58F914-FDB9-4657-ABF3-8AAB5BEB8F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{BD58F914-FDB9-4657-ABF3-8AAB5BEB8F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55100797-0F62-4E8F-A25D-F3730542EF6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="166">
   <si>
     <t>Nouns</t>
   </si>
@@ -282,9 +282,6 @@
     </r>
   </si>
   <si>
-    <t>14+ 6</t>
-  </si>
-  <si>
     <t>6 + 14</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>get the elevator to move</t>
   </si>
   <si>
-    <t>embeded function to help the elevaor work</t>
-  </si>
-  <si>
     <t>synonym: assign</t>
   </si>
   <si>
@@ -545,12 +539,21 @@
   </si>
   <si>
     <t>more elevator available</t>
+  </si>
+  <si>
+    <t>embeded function to help the elevator work</t>
+  </si>
+  <si>
+    <t>18 + 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1375,14 +1378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>76</v>
@@ -1427,10 +1430,10 @@
         <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
@@ -1439,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>76</v>
@@ -1448,10 +1451,10 @@
         <v>75</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>3</v>
@@ -1460,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>76</v>
@@ -1499,25 +1502,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>48</v>
@@ -1526,10 +1529,10 @@
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1537,31 +1540,31 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1576,7 +1579,7 @@
         <v>62</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S4" s="2"/>
       <c r="V4" t="s">
@@ -1591,13 +1594,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1612,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1627,7 +1630,7 @@
         <v>62</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S5" s="2"/>
       <c r="V5" t="s">
@@ -1642,13 +1645,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1688,10 +1691,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1703,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1721,7 +1724,7 @@
         <v>62</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S7" s="2"/>
       <c r="V7" t="s">
@@ -1739,10 +1742,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1757,7 +1760,7 @@
         <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1772,7 +1775,7 @@
         <v>62</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S8" s="2"/>
       <c r="V8" s="7" t="s">
@@ -1793,16 +1796,16 @@
         <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>35</v>
@@ -1814,7 +1817,7 @@
         <v>64</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1829,7 +1832,7 @@
         <v>62</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S9" s="2"/>
       <c r="V9" t="s">
@@ -1861,7 +1864,7 @@
         <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1876,7 +1879,7 @@
         <v>62</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S10" s="2"/>
       <c r="V10" t="s">
@@ -1891,13 +1894,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1912,7 +1915,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1927,7 +1930,7 @@
         <v>62</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S11" s="2"/>
       <c r="V11" t="s">
@@ -1945,10 +1948,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1960,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1978,7 +1981,7 @@
         <v>62</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S12" s="2"/>
     </row>
@@ -1990,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2006,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2023,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2041,16 +2044,16 @@
         <v>61</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2075,7 +2078,7 @@
         <v>60</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2089,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2107,7 +2110,7 @@
         <v>62</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2121,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2139,7 +2142,7 @@
         <v>62</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2150,13 +2153,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2171,7 +2174,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2188,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2216,19 +2219,19 @@
         <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
@@ -2237,12 +2240,12 @@
         <v>63</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2251,13 +2254,13 @@
         <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
@@ -2266,7 +2269,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2277,16 +2280,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -2295,7 +2298,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2306,16 +2309,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2324,7 +2327,7 @@
         <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,11 +2341,17 @@
         <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2355,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2369,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2386,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2419,7 +2428,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2462,21 +2471,21 @@
         <v>61</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -2485,38 +2494,38 @@
         <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
